--- a/Running projects/Meezan Bank Head Office/BOQ/Finance.xlsx
+++ b/Running projects/Meezan Bank Head Office/BOQ/Finance.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Meezan Bank Head Office\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52BFB2B-E885-46B5-8C0A-53C1DD3E172F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D428C1E-9E88-46E6-B0BB-EA15736120B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Contract Amount</t>
   </si>
@@ -87,9 +88,6 @@
     <t>Less Tax</t>
   </si>
   <si>
-    <t>Less Mobilization 20%</t>
-  </si>
-  <si>
     <t>Less Retention 5%</t>
   </si>
   <si>
@@ -115,6 +113,9 @@
   </si>
   <si>
     <t>LESS Mob 20%</t>
+  </si>
+  <si>
+    <t>Less Mobilization 30%</t>
   </si>
 </sst>
 </file>
@@ -390,6 +391,9 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,9 +408,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -425,6 +426,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>344023</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>172446</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{103D2D5D-7C27-F8B3-4EC7-C68D6FF92AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11830050" y="733425"/>
+          <a:ext cx="8049748" cy="7135221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1953355</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>39051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8856A8E0-1804-7FCA-09DF-44C226620639}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7115175" y="352425"/>
+          <a:ext cx="5229955" cy="6811326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -693,7 +787,7 @@
   <dimension ref="A2:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +796,7 @@
     <col min="2" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
     <col min="6" max="6" width="3.140625" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
     <col min="8" max="8" width="17.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="3.85546875" customWidth="1"/>
     <col min="10" max="10" width="34.7109375" customWidth="1"/>
@@ -713,21 +807,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="J2" s="35" t="s">
+      <c r="A2" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="J2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="M2" s="35" t="s">
+      <c r="K2" s="36"/>
+      <c r="M2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="35"/>
+      <c r="N2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
@@ -743,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>78840000</v>
+        <v>67455504</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>6</v>
@@ -759,7 +853,7 @@
       <c r="D4" s="24"/>
       <c r="E4" s="22">
         <f>K4</f>
-        <v>23652000</v>
+        <v>20236651.199999999</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>0</v>
@@ -768,11 +862,11 @@
         <v>78840000</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="2">
         <f>K3*30%</f>
-        <v>23652000</v>
+        <v>20236651.199999999</v>
       </c>
       <c r="M4" s="23" t="s">
         <v>10</v>
@@ -786,11 +880,11 @@
       <c r="D5" s="8"/>
       <c r="E5" s="17"/>
       <c r="G5" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="27">
         <f>D7+C7+B7</f>
-        <v>20704996.640000001</v>
+        <v>15832488</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="2"/>
@@ -813,11 +907,11 @@
       </c>
       <c r="E6" s="14"/>
       <c r="G6" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="27">
         <f>H5*7.5%</f>
-        <v>1552874.7479999999</v>
+        <v>1187436.5999999999</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>18</v>
@@ -833,22 +927,23 @@
         <v>4</v>
       </c>
       <c r="B7" s="11">
-        <v>20704996.640000001</v>
+        <v>15832488</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="14">
         <f>D7+C7+B7</f>
-        <v>20704996.640000001</v>
+        <v>15832488</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="27">
         <f>H5-H6</f>
-        <v>19152121.892000001</v>
-      </c>
-      <c r="K7" s="5"/>
+        <v>14645051.4</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2"/>
       <c r="M7" s="3" t="s">
         <v>11</v>
       </c>
@@ -857,19 +952,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="16"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="G8" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="27">
         <f>H7*20%</f>
-        <v>3830424.3784000003</v>
-      </c>
-      <c r="K8" s="5"/>
+        <v>2929010.2800000003</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="2">
+        <f>K4-K6</f>
+        <v>406651.19999999925</v>
+      </c>
       <c r="M8"/>
       <c r="N8" s="1"/>
     </row>
@@ -878,29 +979,26 @@
         <v>19</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="37">
+      <c r="C9" s="32">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>C9*E7</f>
-        <v>1552874.7479999999</v>
+        <v>1187436.5999999999</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="27">
         <f>H7*5%</f>
-        <v>957606.09460000007</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="36"/>
+        <v>732252.57000000007</v>
+      </c>
+      <c r="K9" s="5"/>
       <c r="M9"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -910,16 +1008,13 @@
       </c>
       <c r="H10" s="27">
         <f>H7-H8-H9</f>
-        <v>14364091.419000002</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>10983788.550000001</v>
+      </c>
+      <c r="K10" s="5"/>
       <c r="M10"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>5</v>
       </c>
@@ -928,14 +1023,14 @@
       <c r="D11" s="11"/>
       <c r="E11" s="14">
         <f>E7-E9</f>
-        <v>19152121.892000001</v>
+        <v>14645051.4</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="27"/>
-      <c r="J11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="2"/>
+      <c r="J11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="37"/>
       <c r="M11"/>
       <c r="N11" s="1"/>
     </row>
@@ -946,36 +1041,38 @@
       <c r="E12" s="17"/>
       <c r="G12" s="26"/>
       <c r="H12" s="27"/>
-      <c r="J12" s="23" t="s">
-        <v>10</v>
+      <c r="J12" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="K12" s="2"/>
       <c r="M12"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="12">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="19">
-        <f>E11*20%</f>
-        <v>3830424.3784000003</v>
+        <f>E11*30%</f>
+        <v>4393515.42</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="28"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
+      <c r="J13" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="2"/>
       <c r="M13"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="12">
@@ -984,58 +1081,62 @@
       <c r="D14" s="8"/>
       <c r="E14" s="19">
         <f>E11*C14</f>
-        <v>957606.09460000007</v>
+        <v>732252.57000000007</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="27"/>
-      <c r="J14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="2">
-        <f>SUM(K10:K13)</f>
-        <v>0</v>
-      </c>
+      <c r="J14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="2"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="30">
         <f>E11-E13-E14</f>
-        <v>14364091.419000002</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="2">
-        <f>K4-K14</f>
-        <v>23652000</v>
-      </c>
+        <v>9519283.4100000001</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16"/>
       <c r="B16" s="4"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
-      <c r="K16" s="1"/>
+      <c r="J16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="2">
+        <f>SUM(K12:K15)</f>
+        <v>0</v>
+      </c>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="17"/>
       <c r="G17" s="25"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="2">
+        <f>K4-K16</f>
+        <v>20236651.199999999</v>
+      </c>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -1044,20 +1145,19 @@
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="19"/>
-      <c r="J18" s="31"/>
       <c r="K18" s="1"/>
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="30">
         <f>E15-E17</f>
-        <v>14364091.419000002</v>
+        <v>9519283.4100000001</v>
       </c>
       <c r="K19" s="1"/>
       <c r="N19" s="1"/>
@@ -1068,7 +1168,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="19"/>
-      <c r="J20" s="29"/>
+      <c r="J20" s="31"/>
       <c r="K20" s="1"/>
       <c r="N20" s="1"/>
     </row>
@@ -1083,6 +1183,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
+      <c r="J22" s="29"/>
       <c r="K22" s="1"/>
       <c r="N22" s="1"/>
     </row>
@@ -1243,11 +1344,13 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
+      <c r="K46" s="1"/>
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
+      <c r="K47" s="1"/>
     </row>
     <row r="48" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
@@ -1288,10 +1391,23 @@
   <mergeCells count="4">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J11:K11"/>
     <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9FC461-157D-46FD-8382-33188C6E4A46}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Running projects/Meezan Bank Head Office/BOQ/Finance.xlsx
+++ b/Running projects/Meezan Bank Head Office/BOQ/Finance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Meezan Bank Head Office\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D428C1E-9E88-46E6-B0BB-EA15736120B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F5428C-A77E-4F21-9D20-B276230B6937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,16 +432,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>344023</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>172446</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>67798</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>39096</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -464,7 +464,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11830050" y="733425"/>
+          <a:off x="13382625" y="28575"/>
           <a:ext cx="8049748" cy="7135221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -476,16 +476,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1953355</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>39051</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1619980</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>86676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -508,8 +508,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7115175" y="352425"/>
+          <a:off x="11306175" y="781050"/>
           <a:ext cx="5229955" cy="6811326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1048344</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>29572</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7FB6C5-72BD-ABDA-A826-C3EAC086B7EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7181850" y="9525"/>
+          <a:ext cx="4258269" cy="7144747"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -787,7 +831,7 @@
   <dimension ref="A2:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +928,7 @@
       </c>
       <c r="H5" s="27">
         <f>D7+C7+B7</f>
-        <v>15832488</v>
+        <v>15831488</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="2"/>
@@ -911,7 +955,7 @@
       </c>
       <c r="H6" s="27">
         <f>H5*7.5%</f>
-        <v>1187436.5999999999</v>
+        <v>1187361.5999999999</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>18</v>
@@ -927,20 +971,20 @@
         <v>4</v>
       </c>
       <c r="B7" s="11">
-        <v>15832488</v>
+        <v>15831488</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="14">
         <f>D7+C7+B7</f>
-        <v>15832488</v>
+        <v>15831488</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="27">
         <f>H5-H6</f>
-        <v>14645051.4</v>
+        <v>14644126.4</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="2"/>
@@ -962,7 +1006,7 @@
       </c>
       <c r="H8" s="27">
         <f>H7*20%</f>
-        <v>2929010.2800000003</v>
+        <v>2928825.2800000003</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>16</v>
@@ -985,14 +1029,14 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>C9*E7</f>
-        <v>1187436.5999999999</v>
+        <v>1187361.5999999999</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="27">
         <f>H7*5%</f>
-        <v>732252.57000000007</v>
+        <v>732206.32000000007</v>
       </c>
       <c r="K9" s="5"/>
       <c r="M9"/>
@@ -1008,7 +1052,7 @@
       </c>
       <c r="H10" s="27">
         <f>H7-H8-H9</f>
-        <v>10983788.550000001</v>
+        <v>10983094.800000001</v>
       </c>
       <c r="K10" s="5"/>
       <c r="M10"/>
@@ -1023,7 +1067,7 @@
       <c r="D11" s="11"/>
       <c r="E11" s="14">
         <f>E7-E9</f>
-        <v>14645051.4</v>
+        <v>14644126.4</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="27"/>
@@ -1059,7 +1103,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="19">
         <f>E11*30%</f>
-        <v>4393515.42</v>
+        <v>4393237.92</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="28"/>
@@ -1081,7 +1125,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="19">
         <f>E11*C14</f>
-        <v>732252.57000000007</v>
+        <v>732206.32000000007</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="27"/>
@@ -1100,7 +1144,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="30">
         <f>E11-E13-E14</f>
-        <v>9519283.4100000001</v>
+        <v>9518682.1600000001</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
@@ -1157,7 +1201,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="30">
         <f>E15-E17</f>
-        <v>9519283.4100000001</v>
+        <v>9518682.1600000001</v>
       </c>
       <c r="K19" s="1"/>
       <c r="N19" s="1"/>

--- a/Running projects/Meezan Bank Head Office/BOQ/Finance.xlsx
+++ b/Running projects/Meezan Bank Head Office/BOQ/Finance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Meezan Bank Head Office\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F5428C-A77E-4F21-9D20-B276230B6937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA66610-3653-4517-B130-BAFC9BF24CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>Contract Amount</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Less Mobilization 30%</t>
+  </si>
+  <si>
+    <t>MEEZAN BANK</t>
   </si>
 </sst>
 </file>
@@ -128,7 +131,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +186,13 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -306,7 +316,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -394,6 +404,19 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -408,6 +431,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -433,15 +468,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>67798</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>39096</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>505948</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>48621</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -464,7 +499,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13382625" y="28575"/>
+          <a:off x="13239750" y="5372100"/>
           <a:ext cx="8049748" cy="7135221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -477,15 +512,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1619980</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>86676</xdr:rowOff>
+      <xdr:colOff>753205</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>48576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -508,7 +543,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11306175" y="781050"/>
+          <a:off x="10172700" y="6267450"/>
           <a:ext cx="5229955" cy="6811326"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -520,16 +555,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1048344</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>29572</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38694</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>115297</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -552,8 +587,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7181850" y="9525"/>
+          <a:off x="5648325" y="5619750"/>
           <a:ext cx="4258269" cy="7144747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>143617</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>96106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{027DB0E1-BAD5-EFA9-529D-5FD73741512D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="6610350"/>
+          <a:ext cx="5315692" cy="6134956"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -828,19 +907,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O54"/>
+  <dimension ref="A2:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="4" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
     <col min="6" max="6" width="3.140625" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
     <col min="8" max="8" width="17.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="3.85546875" customWidth="1"/>
     <col min="10" max="10" width="34.7109375" customWidth="1"/>
@@ -851,21 +931,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="J2" s="36" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="J2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="M2" s="36" t="s">
+      <c r="K2" s="41"/>
+      <c r="M2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="36"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
@@ -915,7 +995,9 @@
       <c r="M4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" s="2">
+        <v>884131.10000000009</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
@@ -993,7 +1075,7 @@
       </c>
       <c r="N7" s="2">
         <f>SUM(N3:N6)</f>
-        <v>0</v>
+        <v>884131.10000000009</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -1071,10 +1153,10 @@
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="27"/>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="37"/>
+      <c r="K11" s="42"/>
       <c r="M11"/>
       <c r="N11" s="1"/>
     </row>
@@ -1088,7 +1170,9 @@
       <c r="J12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2">
+        <v>4749466</v>
+      </c>
       <c r="M12"/>
       <c r="N12" s="1"/>
     </row>
@@ -1110,7 +1194,9 @@
       <c r="J13" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2">
+        <v>5304786.5999999996</v>
+      </c>
       <c r="M13"/>
       <c r="N13" s="1"/>
     </row>
@@ -1161,7 +1247,7 @@
       </c>
       <c r="K16" s="2">
         <f>SUM(K12:K15)</f>
-        <v>0</v>
+        <v>10054252.6</v>
       </c>
       <c r="N16" s="1"/>
     </row>
@@ -1179,7 +1265,7 @@
       </c>
       <c r="K17" s="2">
         <f>K4-K16</f>
-        <v>20236651.199999999</v>
+        <v>10182398.6</v>
       </c>
       <c r="N17" s="1"/>
     </row>
@@ -1401,35 +1487,152 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E60" s="46">
+        <v>17682622</v>
+      </c>
+      <c r="G60" s="46">
+        <v>15831488</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E61" s="46"/>
+      <c r="G61" s="46"/>
+    </row>
+    <row r="62" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E62" s="46">
+        <f>E60*30%</f>
+        <v>5304786.5999999996</v>
+      </c>
+      <c r="G62" s="46">
+        <f>G60*30%</f>
+        <v>4749446.3999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E63" s="46">
+        <f>E60*5%</f>
+        <v>884131.10000000009</v>
+      </c>
+      <c r="G63" s="46">
+        <f>G60*5%</f>
+        <v>791574.4</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E64" s="46"/>
+      <c r="G64" s="46"/>
+    </row>
+    <row r="65" spans="5:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E65" s="46">
+        <f>E60-E62-E63</f>
+        <v>11493704.300000001</v>
+      </c>
+      <c r="G65" s="46">
+        <f>G60-G62-G63</f>
+        <v>10290467.200000001</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E66" s="46"/>
+      <c r="G66" s="46"/>
+    </row>
+    <row r="67" spans="5:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E67" s="46">
+        <f>E65*15%</f>
+        <v>1724055.645</v>
+      </c>
+      <c r="G67" s="46">
+        <f>G65*15%</f>
+        <v>1543570.08</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E68" s="46"/>
+      <c r="G68" s="46"/>
+    </row>
+    <row r="69" spans="5:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E69" s="46">
+        <f>E67+E65</f>
+        <v>13217759.945</v>
+      </c>
+      <c r="G69" s="46">
+        <f>G67+G65</f>
+        <v>11834037.280000001</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E71" s="1">
+        <f>E69*9%</f>
+        <v>1189598.3950499999</v>
+      </c>
+      <c r="G71" s="1">
+        <f>G69*9%</f>
+        <v>1065063.3552000001</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E73" s="1">
+        <v>1724056</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1724056</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E75" s="1">
+        <f>E69-E71-E73</f>
+        <v>10304105.54995</v>
+      </c>
+      <c r="G75" s="1">
+        <f>G69-G71-G73</f>
+        <v>9044917.9248000011</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1446,12 +1649,481 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9FC461-157D-46FD-8382-33188C6E4A46}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
+    </row>
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="14">
+        <v>55163506</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="14">
+        <v>55163506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22">
+        <f>J4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22">
+        <f>M4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="14">
+        <v>33514110</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="14">
+        <v>15831488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="32">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C8" s="14">
+        <f>C6*B8</f>
+        <v>2513558.25</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0.09</v>
+      </c>
+      <c r="G8" s="14">
+        <f>G6*F8</f>
+        <v>1424833.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="14">
+        <f>C6-C8</f>
+        <v>31000551.75</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="14">
+        <f>G6-G8</f>
+        <v>14406654.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="19">
+        <f>C10*30%</f>
+        <v>9300165.5250000004</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="19">
+        <f>G10*30%</f>
+        <v>4321996.2239999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="C13" s="19">
+        <f>C10*5%</f>
+        <v>1550027.5875000001</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="G13" s="19">
+        <f>G10*5%</f>
+        <v>720332.70400000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="30">
+        <f>C10-C12-C13</f>
+        <v>20150358.637500003</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="30">
+        <f>G10-G12-G13</f>
+        <v>9364325.1520000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="30">
+        <v>8600000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="30">
+        <f>C14-C16</f>
+        <v>20150358.637500003</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="30">
+        <f>G14-G16</f>
+        <v>764325.1520000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="35"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Running projects/Meezan Bank Head Office/BOQ/Finance.xlsx
+++ b/Running projects/Meezan Bank Head Office/BOQ/Finance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Meezan Bank Head Office\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA66610-3653-4517-B130-BAFC9BF24CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD54367-F9B5-4A9C-82B5-F173D20CACCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Contract Amount</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>MEEZAN BANK</t>
+  </si>
+  <si>
+    <t>Mobilization</t>
   </si>
 </sst>
 </file>
@@ -316,7 +319,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -417,6 +420,9 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,8 +447,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -467,16 +473,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>505948</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>48621</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>582148</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>10521</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -499,7 +505,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13239750" y="5372100"/>
+          <a:off x="19726275" y="5905500"/>
           <a:ext cx="8049748" cy="7135221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -511,16 +517,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>753205</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>48576</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276955</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>10476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -543,7 +549,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10172700" y="6267450"/>
+          <a:off x="13611225" y="6629400"/>
           <a:ext cx="5229955" cy="6811326"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -555,16 +561,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38694</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>115297</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19644</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>124822</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -587,7 +593,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5648325" y="5619750"/>
+          <a:off x="9801225" y="6610350"/>
           <a:ext cx="4258269" cy="7144747"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -600,15 +606,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>143617</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>96106</xdr:rowOff>
+      <xdr:colOff>742</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>134206</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -631,8 +637,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142875" y="6610350"/>
+          <a:off x="0" y="6457950"/>
           <a:ext cx="5315692" cy="6134956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>981660</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB825E3-5669-E11C-1BBE-8E363FF514FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514975" y="5867400"/>
+          <a:ext cx="4191585" cy="6020640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -909,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O75"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,21 +981,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="J2" s="41" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="J2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="42"/>
+      <c r="M2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="41"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
@@ -1153,10 +1203,10 @@
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="27"/>
-      <c r="J11" s="42" t="s">
+      <c r="J11" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="42"/>
+      <c r="K11" s="43"/>
       <c r="M11"/>
       <c r="N11" s="1"/>
     </row>
@@ -1521,77 +1571,77 @@
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E60" s="46">
+      <c r="E60" s="38">
         <v>17682622</v>
       </c>
-      <c r="G60" s="46">
+      <c r="G60" s="38">
         <v>15831488</v>
       </c>
     </row>
     <row r="61" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E61" s="46"/>
-      <c r="G61" s="46"/>
+      <c r="E61" s="38"/>
+      <c r="G61" s="38"/>
     </row>
     <row r="62" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E62" s="46">
+      <c r="E62" s="38">
         <f>E60*30%</f>
         <v>5304786.5999999996</v>
       </c>
-      <c r="G62" s="46">
+      <c r="G62" s="38">
         <f>G60*30%</f>
         <v>4749446.3999999994</v>
       </c>
     </row>
     <row r="63" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E63" s="46">
+      <c r="E63" s="38">
         <f>E60*5%</f>
         <v>884131.10000000009</v>
       </c>
-      <c r="G63" s="46">
+      <c r="G63" s="38">
         <f>G60*5%</f>
         <v>791574.4</v>
       </c>
     </row>
     <row r="64" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E64" s="46"/>
-      <c r="G64" s="46"/>
+      <c r="E64" s="38"/>
+      <c r="G64" s="38"/>
     </row>
     <row r="65" spans="5:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E65" s="46">
+      <c r="E65" s="38">
         <f>E60-E62-E63</f>
         <v>11493704.300000001</v>
       </c>
-      <c r="G65" s="46">
+      <c r="G65" s="38">
         <f>G60-G62-G63</f>
         <v>10290467.200000001</v>
       </c>
     </row>
     <row r="66" spans="5:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E66" s="46"/>
-      <c r="G66" s="46"/>
+      <c r="E66" s="38"/>
+      <c r="G66" s="38"/>
     </row>
     <row r="67" spans="5:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E67" s="46">
+      <c r="E67" s="38">
         <f>E65*15%</f>
         <v>1724055.645</v>
       </c>
-      <c r="G67" s="46">
-        <f>G65*15%</f>
-        <v>1543570.08</v>
+      <c r="G67" s="38">
+        <f>G65*13%</f>
+        <v>1337760.7360000003</v>
       </c>
     </row>
     <row r="68" spans="5:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E68" s="46"/>
-      <c r="G68" s="46"/>
+      <c r="E68" s="38"/>
+      <c r="G68" s="38"/>
     </row>
     <row r="69" spans="5:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E69" s="46">
+      <c r="E69" s="38">
         <f>E67+E65</f>
         <v>13217759.945</v>
       </c>
-      <c r="G69" s="46">
+      <c r="G69" s="38">
         <f>G67+G65</f>
-        <v>11834037.280000001</v>
+        <v>11628227.936000001</v>
       </c>
     </row>
     <row r="70" spans="5:7" x14ac:dyDescent="0.25">
@@ -1605,7 +1655,7 @@
       </c>
       <c r="G71" s="1">
         <f>G69*9%</f>
-        <v>1065063.3552000001</v>
+        <v>1046540.51424</v>
       </c>
     </row>
     <row r="72" spans="5:7" x14ac:dyDescent="0.25">
@@ -1617,7 +1667,8 @@
         <v>1724056</v>
       </c>
       <c r="G73" s="1">
-        <v>1724056</v>
+        <f>G67</f>
+        <v>1337760.7360000003</v>
       </c>
     </row>
     <row r="74" spans="5:7" x14ac:dyDescent="0.25">
@@ -1631,7 +1682,7 @@
       </c>
       <c r="G75" s="1">
         <f>G69-G71-G73</f>
-        <v>9044917.9248000011</v>
+        <v>9243926.6857600007</v>
       </c>
     </row>
   </sheetData>
@@ -1649,480 +1700,319 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9FC461-157D-46FD-8382-33188C6E4A46}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="33"/>
-      <c r="E1" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-    </row>
-    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="14">
+      <c r="B2" s="10"/>
+      <c r="C2" s="14">
         <v>55163506</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="13" t="s">
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22">
+        <f>F3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="14">
-        <v>55163506</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22">
-        <f>J4</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22">
-        <f>M4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14">
-        <v>33514110</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="14">
-        <v>15831488</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="32">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C8" s="14">
-        <f>C6*B8</f>
-        <v>2513558.25</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="32">
-        <v>0.09</v>
-      </c>
-      <c r="G8" s="14">
-        <f>G6*F8</f>
-        <v>1424833.92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="B7" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="14">
+        <f>C2*30%</f>
+        <v>16549051.799999999</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14">
-        <f>C6-C8</f>
-        <v>31000551.75</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="14">
-        <f>G6-G8</f>
-        <v>14406654.08</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="14" t="e">
+        <f>C5-C7</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="19" t="e">
+        <f>C9*30%</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" s="36"/>
+    </row>
+    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B12" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="C12" s="19">
-        <f>C10*30%</f>
-        <v>9300165.5250000004</v>
+        <v>0.05</v>
+      </c>
+      <c r="C12" s="19" t="e">
+        <f>C9*5%</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D12" s="36"/>
-      <c r="E12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="G12" s="19">
-        <f>G10*30%</f>
-        <v>4321996.2239999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="C13" s="19">
-        <f>C10*5%</f>
-        <v>1550027.5875000001</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="G13" s="19">
-        <f>G10*5%</f>
-        <v>720332.70400000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
         <v>21</v>
       </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="30" t="e">
+        <f>C9-C11-C12</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" s="37"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="30">
-        <f>C10-C12-C13</f>
-        <v>20150358.637500003</v>
-      </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="30">
-        <f>G10-G12-G13</f>
-        <v>9364325.1520000007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>24</v>
+      </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="30">
-        <v>8600000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="37"/>
+    </row>
+    <row r="16" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="36"/>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
         <v>22</v>
       </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="30" t="e">
+        <f>C13-C15</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D17" s="37"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="30">
-        <f>C14-C16</f>
-        <v>20150358.637500003</v>
-      </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="30">
-        <f>G14-G16</f>
-        <v>764325.1520000007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="36"/>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="35"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="G53" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E1:G1"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Running projects/Meezan Bank Head Office/BOQ/Finance.xlsx
+++ b/Running projects/Meezan Bank Head Office/BOQ/Finance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Meezan Bank Head Office\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD54367-F9B5-4A9C-82B5-F173D20CACCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C669FD-45BA-4E8F-9A2D-20685A97DA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Contract Amount</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Balance Payable</t>
   </si>
   <si>
-    <t>DEDUCTION IN IPC 1</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>RETENTION AMOUNT</t>
   </si>
   <si>
-    <t>DEDUCTION IN adhoc in IPC 2</t>
-  </si>
-  <si>
     <t>TOTAL RECEIVABLE</t>
   </si>
   <si>
@@ -122,6 +116,9 @@
   </si>
   <si>
     <t>Mobilization</t>
+  </si>
+  <si>
+    <t>DEDUCTION IN adhoc in IPC 3</t>
   </si>
 </sst>
 </file>
@@ -423,6 +420,9 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,9 +446,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -482,7 +479,7 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>582148</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>10521</xdr:rowOff>
+      <xdr:rowOff>996</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -519,14 +516,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>276955</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>10476</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>191451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -607,14 +604,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>742</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>134206</xdr:rowOff>
+      <xdr:rowOff>19906</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -637,7 +634,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6457950"/>
+          <a:off x="0" y="6467475"/>
           <a:ext cx="5315692" cy="6134956"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -649,23 +646,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>981660</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>840</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1572040</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB825E3-5669-E11C-1BBE-8E363FF514FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B50A9F6-13E2-CC3B-A562-944F439A466C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -681,8 +678,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5514975" y="5867400"/>
-          <a:ext cx="4191585" cy="6020640"/>
+          <a:off x="11039475" y="114300"/>
+          <a:ext cx="2972215" cy="5372100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238792</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D56044-470A-E032-8F48-7E487320C46E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5324475" y="6486525"/>
+          <a:ext cx="4782217" cy="6134956"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -959,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,21 +1022,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="J2" s="42" t="s">
+      <c r="A2" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="J2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="M2" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="42"/>
+      <c r="K2" s="43"/>
+      <c r="M2" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
@@ -1007,16 +1048,14 @@
       <c r="E3" s="14">
         <v>55163506</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>67455504</v>
-      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="2"/>
       <c r="M3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="N3" s="2">
+        <v>791574</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -1027,7 +1066,7 @@
       <c r="D4" s="24"/>
       <c r="E4" s="22">
         <f>K4</f>
-        <v>20236651.199999999</v>
+        <v>21900000</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>0</v>
@@ -1036,14 +1075,13 @@
         <v>78840000</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2">
-        <f>K3*30%</f>
-        <v>20236651.199999999</v>
+        <v>21900000</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2">
         <v>884131.10000000009</v>
@@ -1056,7 +1094,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="17"/>
       <c r="G5" s="26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="27">
         <f>D7+C7+B7</f>
@@ -1065,7 +1103,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="2"/>
       <c r="M5" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="29"/>
@@ -1073,28 +1111,24 @@
     <row r="6" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18"/>
       <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="E6" s="14"/>
       <c r="G6" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H6" s="27">
         <f>H5*7.5%</f>
         <v>1187361.5999999999</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="2">
-        <v>19830000</v>
-      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2"/>
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
     </row>
@@ -1112,7 +1146,7 @@
         <v>15831488</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" s="27">
         <f>H5-H6</f>
@@ -1121,11 +1155,11 @@
       <c r="J7" s="3"/>
       <c r="K7" s="2"/>
       <c r="M7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N7" s="2">
         <f>SUM(N3:N6)</f>
-        <v>884131.10000000009</v>
+        <v>1675705.1</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -1134,7 +1168,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="G8" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H8" s="27">
         <f>H7*20%</f>
@@ -1144,15 +1178,14 @@
         <v>16</v>
       </c>
       <c r="K8" s="2">
-        <f>K4-K6</f>
-        <v>406651.19999999925</v>
+        <v>19672770</v>
       </c>
       <c r="M8"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="32">
@@ -1164,29 +1197,33 @@
         <v>1187361.5999999999</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" s="27">
         <f>H7*5%</f>
         <v>732206.32000000007</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="2"/>
       <c r="M9"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="G10" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" s="27">
         <f>H7-H8-H9</f>
         <v>10983094.800000001</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="J10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="M10"/>
       <c r="N10" s="1"/>
     </row>
@@ -1203,32 +1240,24 @@
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="27"/>
-      <c r="J11" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="K11" s="43"/>
+      <c r="K11" s="5"/>
       <c r="M11"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="G12" s="26"/>
       <c r="H12" s="27"/>
-      <c r="J12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="2">
-        <v>4749466</v>
-      </c>
+      <c r="K12" s="5"/>
       <c r="M12"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="12">
@@ -1241,18 +1270,16 @@
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="28"/>
-      <c r="J13" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="2">
-        <v>5304786.5999999996</v>
-      </c>
+      <c r="J13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="44"/>
       <c r="M13"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="12">
@@ -1265,15 +1292,17 @@
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="27"/>
-      <c r="J14" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="2"/>
+      <c r="J14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="2">
+        <v>4749466</v>
+      </c>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
@@ -1282,8 +1311,12 @@
         <f>E11-E13-E14</f>
         <v>9518682.1600000001</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
+      <c r="J15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="2">
+        <v>5304786.5999999996</v>
+      </c>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -1292,45 +1325,43 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
-      <c r="J16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="2">
-        <f>SUM(K12:K15)</f>
-        <v>10054252.6</v>
-      </c>
+      <c r="J16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="2"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="17"/>
       <c r="G17" s="25"/>
-      <c r="J17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="2">
-        <f>K4-K16</f>
-        <v>10182398.6</v>
-      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="10"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="19"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="2">
+        <f>SUM(K14:K17)</f>
+        <v>10054252.6</v>
+      </c>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="8"/>
@@ -1339,7 +1370,13 @@
         <f>E15-E17</f>
         <v>9518682.1600000001</v>
       </c>
-      <c r="K19" s="1"/>
+      <c r="J19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="2">
+        <f>K8-K18</f>
+        <v>9618517.4000000004</v>
+      </c>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
@@ -1348,7 +1385,6 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="19"/>
-      <c r="J20" s="31"/>
       <c r="K20" s="1"/>
       <c r="N20" s="1"/>
     </row>
@@ -1359,11 +1395,11 @@
       <c r="K21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="J22" s="29"/>
+      <c r="J22" s="31"/>
       <c r="K22" s="1"/>
       <c r="N22" s="1"/>
     </row>
@@ -1378,6 +1414,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
+      <c r="J24" s="29"/>
       <c r="K24" s="1"/>
       <c r="N24" s="1"/>
     </row>
@@ -1536,41 +1573,43 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E60" s="38">
         <v>17682622</v>
       </c>
@@ -1578,11 +1617,11 @@
         <v>15831488</v>
       </c>
     </row>
-    <row r="61" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E61" s="38"/>
       <c r="G61" s="38"/>
     </row>
-    <row r="62" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E62" s="38">
         <f>E60*30%</f>
         <v>5304786.5999999996</v>
@@ -1592,7 +1631,7 @@
         <v>4749446.3999999994</v>
       </c>
     </row>
-    <row r="63" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E63" s="38">
         <f>E60*5%</f>
         <v>884131.10000000009</v>
@@ -1602,7 +1641,7 @@
         <v>791574.4</v>
       </c>
     </row>
-    <row r="64" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E64" s="38"/>
       <c r="G64" s="38"/>
     </row>
@@ -1689,7 +1728,7 @@
   <mergeCells count="4">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1715,11 +1754,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
+      <c r="A1" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1753,19 +1792,19 @@
       <c r="A5" s="15"/>
       <c r="B5" s="11"/>
       <c r="C5" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="47"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="32">
         <v>0.3</v>
@@ -1801,7 +1840,7 @@
     </row>
     <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="12">
         <v>0.3</v>
@@ -1814,7 +1853,7 @@
     </row>
     <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="12">
         <v>0.05</v>
@@ -1827,7 +1866,7 @@
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="30" t="e">
@@ -1844,7 +1883,7 @@
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="30"/>
@@ -1858,7 +1897,7 @@
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="30" t="e">

--- a/Running projects/Meezan Bank Head Office/BOQ/Finance.xlsx
+++ b/Running projects/Meezan Bank Head Office/BOQ/Finance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Meezan Bank Head Office\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C669FD-45BA-4E8F-9A2D-20685A97DA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D4696F-D7C6-4723-9594-4105C0B11859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Contract Amount</t>
   </si>
@@ -119,6 +119,24 @@
   </si>
   <si>
     <t>DEDUCTION IN adhoc in IPC 3</t>
+  </si>
+  <si>
+    <t>Grand total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less Mobilization </t>
+  </si>
+  <si>
+    <t>Less Retention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add SRB </t>
+  </si>
+  <si>
+    <t>Less income tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less SRB </t>
   </si>
 </sst>
 </file>
@@ -316,7 +334,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -446,6 +464,25 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -470,15 +507,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>582148</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>996</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -514,16 +551,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1171575</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>276955</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>191451</xdr:rowOff>
+      <xdr:rowOff>67626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -558,16 +595,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1076325</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>19644</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>124822</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>48622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -604,14 +641,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>742</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>19906</xdr:rowOff>
+      <xdr:colOff>57892</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>162781</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -646,16 +683,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1572040</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1029115</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -678,7 +715,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11039475" y="114300"/>
+          <a:off x="10496550" y="9525"/>
           <a:ext cx="2972215" cy="5372100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -691,15 +728,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>238792</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>38956</xdr:rowOff>
+      <xdr:colOff>419767</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>191356</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -722,7 +759,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5324475" y="6486525"/>
+          <a:off x="5753100" y="8886825"/>
           <a:ext cx="4782217" cy="6134956"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -998,738 +1035,934 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O75"/>
+  <dimension ref="A2:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.85546875" customWidth="1"/>
-    <col min="10" max="10" width="34.7109375" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="13" max="13" width="34.7109375" customWidth="1"/>
-    <col min="14" max="14" width="24" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" customWidth="1"/>
+    <col min="11" max="11" width="34.7109375" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="14" max="14" width="34.7109375" customWidth="1"/>
+    <col min="15" max="15" width="24" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="J2" s="43" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="K2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="M2" s="43" t="s">
+      <c r="L2" s="43"/>
+      <c r="N2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="43"/>
-    </row>
-    <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="O2" s="43"/>
+    </row>
+    <row r="3" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="14">
+      <c r="E3" s="11"/>
+      <c r="F3" s="14">
         <v>55163506</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="2"/>
-      <c r="M3" s="3" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="2"/>
+      <c r="N3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>791574</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="24"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="24"/>
-      <c r="E4" s="22">
-        <f>K4</f>
+      <c r="E4" s="24"/>
+      <c r="F4" s="22">
+        <f>L4</f>
         <v>21900000</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="H4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="27">
+      <c r="I4" s="27">
         <v>78840000</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>21900000</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="N4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>884131.10000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="17"/>
-      <c r="G5" s="26" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="17"/>
+      <c r="H5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="27">
-        <f>D7+C7+B7</f>
-        <v>15831488</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="2"/>
-      <c r="M5" s="23" t="s">
+      <c r="I5" s="27">
+        <f>E7+D7+C7</f>
+        <v>33514110</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="2"/>
+      <c r="N5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="29"/>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O5" s="2"/>
+      <c r="P5" s="29"/>
+    </row>
+    <row r="6" spans="1:16" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="G6" s="26" t="s">
+      <c r="F6" s="14"/>
+      <c r="H6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="27">
-        <f>H5*7.5%</f>
-        <v>1187361.5999999999</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="2"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I6" s="27">
+        <f>I5*7.5%</f>
+        <v>2513558.25</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="2"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="51"/>
+      <c r="C7" s="11">
         <v>15831488</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14">
-        <f>D7+C7+B7</f>
-        <v>15831488</v>
-      </c>
-      <c r="G7" s="26" t="s">
+      <c r="D7" s="11">
+        <v>17682622</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="14">
+        <f>E7+D7+C7</f>
+        <v>33514110</v>
+      </c>
+      <c r="H7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="27">
-        <f>H5-H6</f>
-        <v>14644126.4</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="2"/>
-      <c r="M7" s="3" t="s">
+      <c r="I7" s="27">
+        <f>I5-I6</f>
+        <v>31000551.75</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="2"/>
+      <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="2">
-        <f>SUM(N3:N6)</f>
+      <c r="O7" s="2">
+        <f>SUM(O3:O6)</f>
         <v>1675705.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="16"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="49"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="17"/>
-      <c r="G8" s="26" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="17"/>
+      <c r="H8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="27">
-        <f>H7*20%</f>
-        <v>2928825.2800000003</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="I8" s="27">
+        <f>I7*20%</f>
+        <v>6200110.3500000006</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>19672770</v>
       </c>
-      <c r="M8"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="32">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="14">
-        <f>C9*E7</f>
-        <v>1187361.5999999999</v>
-      </c>
-      <c r="G9" s="26" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="14">
+        <f>D9*F7</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="27">
-        <f>H7*5%</f>
-        <v>732206.32000000007</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="2"/>
-      <c r="M9"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I9" s="27">
+        <f>I7*5%</f>
+        <v>1550027.5875000001</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="2"/>
+      <c r="N9"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="49"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="17"/>
-      <c r="G10" s="26" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="17"/>
+      <c r="H10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="27">
-        <f>H7-H8-H9</f>
-        <v>10983094.800000001</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="I10" s="27">
+        <f>I7-I8-I9</f>
+        <v>23250413.8125</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="M10"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="2"/>
+      <c r="N10"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="14">
-        <f>E7-E9</f>
-        <v>14644126.4</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
-      <c r="K11" s="5"/>
-      <c r="M11"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B11" s="51"/>
+      <c r="C11" s="14">
+        <f>C7-C9</f>
+        <v>15831488</v>
+      </c>
+      <c r="D11" s="14">
+        <f>D7-D9</f>
+        <v>17682622</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="14">
+        <f>E11+D11+C11</f>
+        <v>33514110</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
+      <c r="L11" s="5"/>
+      <c r="N11"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="49"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="17"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
-      <c r="K12" s="5"/>
-      <c r="M12"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E12" s="8"/>
+      <c r="F12" s="17"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
+      <c r="L12" s="5"/>
+      <c r="N12"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="12">
+        <v>32</v>
+      </c>
+      <c r="B13" s="52">
         <v>0.3</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="19">
-        <f>E11*30%</f>
-        <v>4393237.92</v>
-      </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="28"/>
-      <c r="J13" s="44" t="s">
+      <c r="C13" s="53">
+        <f>C11*30%</f>
+        <v>4749446.3999999994</v>
+      </c>
+      <c r="D13" s="53">
+        <f>B13*D11</f>
+        <v>5304786.5999999996</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="14">
+        <f>E13+D13+C13</f>
+        <v>10054233</v>
+      </c>
+      <c r="H13" s="26"/>
+      <c r="I13" s="28"/>
+      <c r="K13" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="44"/>
-      <c r="M13"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="L13" s="44"/>
+      <c r="N13"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="12">
+        <v>33</v>
+      </c>
+      <c r="B14" s="52">
         <v>0.05</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="19">
-        <f>E11*C14</f>
-        <v>732206.32000000007</v>
-      </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
-      <c r="J14" s="3" t="s">
+      <c r="C14" s="53">
+        <f>C11*5%</f>
+        <v>791574.4</v>
+      </c>
+      <c r="D14" s="53">
+        <f>B14*D11</f>
+        <v>884131.10000000009</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="14">
+        <f>E14+D14+C14</f>
+        <v>1675705.5</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
+      <c r="K14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>4749466</v>
       </c>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="30">
-        <f>E11-E13-E14</f>
-        <v>9518682.1600000001</v>
-      </c>
-      <c r="J15" s="23" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="30">
+        <f>C11-C13-C14</f>
+        <v>10290467.200000001</v>
+      </c>
+      <c r="D15" s="30">
+        <f>D11-D13-D14</f>
+        <v>11493704.300000001</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="14">
+        <f>E15+D15+C15</f>
+        <v>21784171.5</v>
+      </c>
+      <c r="K15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>5304786.5999999996</v>
       </c>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="17"/>
-      <c r="J16" s="23" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="17"/>
+      <c r="K16" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="L16" s="2"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="54">
+        <v>0.13</v>
+      </c>
+      <c r="C17" s="53">
+        <f>B17*C15</f>
+        <v>1337760.7360000003</v>
+      </c>
+      <c r="D17" s="53">
+        <f>D15*15%</f>
+        <v>1724055.645</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="14">
+        <f>E17+D17+C17</f>
+        <v>3061816.3810000001</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="7"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="53">
+        <f>C17+C15</f>
+        <v>11628227.936000001</v>
+      </c>
+      <c r="D18" s="53">
+        <f>D17+D15</f>
+        <v>13217759.945</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="14">
+        <f>E18+D18+C18</f>
+        <v>24845987.881000001</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="2">
+        <f>SUM(L14:L17)</f>
+        <v>10054252.6</v>
+      </c>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="15"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="17"/>
+      <c r="K19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="2">
+        <f>L8-L18</f>
+        <v>9618517.4000000004</v>
+      </c>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="54">
+        <v>0.09</v>
+      </c>
+      <c r="C20" s="53">
+        <f>B20*C18</f>
+        <v>1046540.51424</v>
+      </c>
+      <c r="D20" s="53">
+        <f>B20*D18</f>
+        <v>1189598.3950499999</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="14">
+        <f>E20+D20+C20</f>
+        <v>2236138.9092899999</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="54">
+        <v>0.13</v>
+      </c>
+      <c r="C21" s="53">
+        <v>1337761</v>
+      </c>
+      <c r="D21" s="53">
+        <v>1724056</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="14">
+        <f>E21+D21+C21</f>
+        <v>3061817</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="17"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="53">
+        <f>C18-C20-C21</f>
+        <v>9243926.4217600003</v>
+      </c>
+      <c r="D23" s="53">
+        <f>D18-D20-D21</f>
+        <v>10304105.54995</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="14">
+        <f>E23+D23+C23</f>
+        <v>19548031.97171</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="17"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="17"/>
+      <c r="L25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="17"/>
-      <c r="G17" s="25"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="19"/>
-      <c r="J18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="2">
-        <f>SUM(K14:K17)</f>
-        <v>10054252.6</v>
-      </c>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
+      <c r="B26" s="49"/>
+      <c r="C26" s="53">
+        <v>9093345</v>
+      </c>
+      <c r="D26" s="53">
+        <v>10414071</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="14">
+        <f>E26+D26+C26</f>
+        <v>19507416</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="19"/>
+      <c r="L27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="30">
-        <f>E15-E17</f>
-        <v>9518682.1600000001</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="2">
-        <f>K8-K18</f>
-        <v>9618517.4000000004</v>
-      </c>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="19"/>
-      <c r="K20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="53">
+        <f>C23-C26</f>
+        <v>150581.42176000029</v>
+      </c>
+      <c r="D28" s="53">
+        <f>D23-D26</f>
+        <v>-109965.4500500001</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="14">
+        <f>E28+D28+C28</f>
+        <v>40615.971710000187</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="19"/>
+      <c r="L29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C41" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C42" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C43" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C44" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C45" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C46" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C47" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C48" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C50" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C52" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E60" s="38">
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="H60" s="38">
+        <v>15831488</v>
+      </c>
+    </row>
+    <row r="61" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="H61" s="38"/>
+    </row>
+    <row r="62" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="H62" s="38">
+        <f>H60*30%</f>
+        <v>4749446.3999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="H63" s="38">
+        <f>H60*5%</f>
+        <v>791574.4</v>
+      </c>
+    </row>
+    <row r="64" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H64" s="38"/>
+    </row>
+    <row r="65" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H65" s="38">
+        <f>H60-H62-H63</f>
+        <v>10290467.200000001</v>
+      </c>
+    </row>
+    <row r="66" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H66" s="38"/>
+    </row>
+    <row r="67" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H67" s="38">
+        <f>H65*13%</f>
+        <v>1337760.7360000003</v>
+      </c>
+    </row>
+    <row r="68" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F68" s="1"/>
+      <c r="H68" s="38"/>
+    </row>
+    <row r="69" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F69" s="38">
         <v>17682622</v>
       </c>
-      <c r="G60" s="38">
-        <v>15831488</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E61" s="38"/>
-      <c r="G61" s="38"/>
-    </row>
-    <row r="62" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E62" s="38">
-        <f>E60*30%</f>
+      <c r="H69" s="38">
+        <f>H67+H65</f>
+        <v>11628227.936000001</v>
+      </c>
+    </row>
+    <row r="70" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F70" s="38"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F71" s="38">
+        <f>F69*30%</f>
         <v>5304786.5999999996</v>
       </c>
-      <c r="G62" s="38">
-        <f>G60*30%</f>
-        <v>4749446.3999999994</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E63" s="38">
-        <f>E60*5%</f>
+      <c r="H71" s="1">
+        <f>H69*9%</f>
+        <v>1046540.51424</v>
+      </c>
+    </row>
+    <row r="72" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F72" s="38">
+        <f>F69*5%</f>
         <v>884131.10000000009</v>
       </c>
-      <c r="G63" s="38">
-        <f>G60*5%</f>
-        <v>791574.4</v>
-      </c>
-    </row>
-    <row r="64" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E64" s="38"/>
-      <c r="G64" s="38"/>
-    </row>
-    <row r="65" spans="5:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E65" s="38">
-        <f>E60-E62-E63</f>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F73" s="38"/>
+      <c r="H73" s="1">
+        <f>H67</f>
+        <v>1337760.7360000003</v>
+      </c>
+    </row>
+    <row r="74" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F74" s="38">
+        <f>F69-F71-F72</f>
         <v>11493704.300000001</v>
       </c>
-      <c r="G65" s="38">
-        <f>G60-G62-G63</f>
-        <v>10290467.200000001</v>
-      </c>
-    </row>
-    <row r="66" spans="5:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E66" s="38"/>
-      <c r="G66" s="38"/>
-    </row>
-    <row r="67" spans="5:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E67" s="38">
-        <f>E65*15%</f>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F75" s="38"/>
+      <c r="H75" s="1">
+        <f>H69-H71-H73</f>
+        <v>9243926.6857600007</v>
+      </c>
+    </row>
+    <row r="76" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F76" s="38">
+        <f>F74*15%</f>
         <v>1724055.645</v>
       </c>
-      <c r="G67" s="38">
-        <f>G65*13%</f>
-        <v>1337760.7360000003</v>
-      </c>
-    </row>
-    <row r="68" spans="5:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E68" s="38"/>
-      <c r="G68" s="38"/>
-    </row>
-    <row r="69" spans="5:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E69" s="38">
-        <f>E67+E65</f>
+    </row>
+    <row r="77" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F77" s="38"/>
+    </row>
+    <row r="78" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F78" s="38">
+        <f>F76+F74</f>
         <v>13217759.945</v>
       </c>
-      <c r="G69" s="38">
-        <f>G67+G65</f>
-        <v>11628227.936000001</v>
-      </c>
-    </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E70" s="1"/>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E71" s="1">
-        <f>E69*9%</f>
+    </row>
+    <row r="79" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F80" s="1">
+        <f>F78*9%</f>
         <v>1189598.3950499999</v>
       </c>
-      <c r="G71" s="1">
-        <f>G69*9%</f>
-        <v>1046540.51424</v>
-      </c>
-    </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E72" s="1"/>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E73" s="1">
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="1">
         <v>1724056</v>
       </c>
-      <c r="G73" s="1">
-        <f>G67</f>
-        <v>1337760.7360000003</v>
-      </c>
-    </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E74" s="1"/>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E75" s="1">
-        <f>E69-E71-E73</f>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="1">
+        <f>F78-F80-F82</f>
         <v>10304105.54995</v>
-      </c>
-      <c r="G75" s="1">
-        <f>G69-G71-G73</f>
-        <v>9243926.6857600007</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Running projects/Meezan Bank Head Office/BOQ/Finance.xlsx
+++ b/Running projects/Meezan Bank Head Office/BOQ/Finance.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Meezan Bank Head Office\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D4696F-D7C6-4723-9594-4105C0B11859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6030117-3CB5-4EFE-958C-697C45E3DCCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="IPC 4" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -441,6 +442,25 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -464,25 +484,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -552,15 +553,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>276955</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>67626</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1010380</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>58101</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -583,7 +584,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13611225" y="6629400"/>
+          <a:off x="14135100" y="5934075"/>
           <a:ext cx="5229955" cy="6811326"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -595,16 +596,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19644</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>48622</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1143594</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>162922</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -627,7 +628,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9801225" y="6610350"/>
+          <a:off x="12925425" y="10448925"/>
           <a:ext cx="4258269" cy="7144747"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -639,16 +640,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57892</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>162781</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>105517</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19906</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -671,7 +672,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6467475"/>
+          <a:off x="3200400" y="5810250"/>
           <a:ext cx="5315692" cy="6134956"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -683,16 +684,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1029115</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1724440</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -715,7 +716,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10496550" y="9525"/>
+          <a:off x="10267950" y="685800"/>
           <a:ext cx="2972215" cy="5372100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -727,16 +728,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419767</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>191356</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276892</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>134206</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -759,8 +760,101 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="8886825"/>
+          <a:off x="9324975" y="5734050"/>
           <a:ext cx="4782217" cy="6134956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238754</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>96114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAECAF79-D607-476E-B079-CA8F9B7946FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="381000"/>
+          <a:ext cx="4505954" cy="6192114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>220951</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>48494</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3891BE1F-1ED7-4F78-889F-EF5244E6FD97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896100" y="485775"/>
+          <a:ext cx="13441651" cy="6230219"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1037,7 +1131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C37" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -1060,28 +1154,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="K2" s="43" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
+      <c r="K2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="N2" s="43" t="s">
+      <c r="L2" s="50"/>
+      <c r="N2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="43"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -1130,7 +1224,7 @@
     </row>
     <row r="5" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
-      <c r="B5" s="49"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="4"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -1152,7 +1246,7 @@
     </row>
     <row r="6" spans="1:16" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18"/>
-      <c r="B6" s="50"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1179,7 +1273,7 @@
       <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="51"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="11">
         <v>15831488</v>
       </c>
@@ -1210,7 +1304,7 @@
     </row>
     <row r="8" spans="1:16" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="16"/>
-      <c r="B8" s="49"/>
+      <c r="B8" s="41"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="17"/>
@@ -1234,7 +1328,7 @@
       <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="51"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="10"/>
       <c r="D9" s="32"/>
       <c r="E9" s="12"/>
@@ -1256,7 +1350,7 @@
     </row>
     <row r="10" spans="1:16" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
-      <c r="B10" s="49"/>
+      <c r="B10" s="41"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="17"/>
@@ -1278,7 +1372,7 @@
       <c r="A11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="51"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="14">
         <f>C7-C9</f>
         <v>15831488</v>
@@ -1300,7 +1394,7 @@
     </row>
     <row r="12" spans="1:16" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
-      <c r="B12" s="49"/>
+      <c r="B12" s="41"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="17"/>
@@ -1314,14 +1408,14 @@
       <c r="A13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B13" s="44">
         <v>0.3</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="45">
         <f>C11*30%</f>
         <v>4749446.3999999994</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="45">
         <f>B13*D11</f>
         <v>5304786.5999999996</v>
       </c>
@@ -1332,10 +1426,10 @@
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="28"/>
-      <c r="K13" s="44" t="s">
+      <c r="K13" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="44"/>
+      <c r="L13" s="51"/>
       <c r="N13"/>
       <c r="O13" s="1"/>
     </row>
@@ -1343,14 +1437,14 @@
       <c r="A14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B14" s="44">
         <v>0.05</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="45">
         <f>C11*5%</f>
         <v>791574.4</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="45">
         <f>B14*D11</f>
         <v>884131.10000000009</v>
       </c>
@@ -1373,7 +1467,7 @@
       <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="49"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="30">
         <f>C11-C13-C14</f>
         <v>10290467.200000001</v>
@@ -1397,7 +1491,7 @@
     </row>
     <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16"/>
-      <c r="B16" s="49"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="4"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1412,14 +1506,14 @@
       <c r="A17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17" s="46">
         <v>0.13</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="45">
         <f>B17*C15</f>
         <v>1337760.7360000003</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="45">
         <f>D15*15%</f>
         <v>1724055.645</v>
       </c>
@@ -1437,12 +1531,12 @@
       <c r="A18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="53">
+      <c r="B18" s="41"/>
+      <c r="C18" s="45">
         <f>C17+C15</f>
         <v>11628227.936000001</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="45">
         <f>D17+D15</f>
         <v>13217759.945</v>
       </c>
@@ -1462,9 +1556,9 @@
     </row>
     <row r="19" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="8"/>
       <c r="F19" s="17"/>
       <c r="K19" s="3" t="s">
@@ -1480,14 +1574,14 @@
       <c r="A20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="54">
+      <c r="B20" s="46">
         <v>0.09</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="45">
         <f>B20*C18</f>
         <v>1046540.51424</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="45">
         <f>B20*D18</f>
         <v>1189598.3950499999</v>
       </c>
@@ -1503,13 +1597,13 @@
       <c r="A21" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="54">
+      <c r="B21" s="46">
         <v>0.13</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="45">
         <v>1337761</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="45">
         <v>1724056</v>
       </c>
       <c r="E21" s="8"/>
@@ -1522,9 +1616,9 @@
     </row>
     <row r="22" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="8"/>
       <c r="F22" s="17"/>
       <c r="K22" s="31"/>
@@ -1535,12 +1629,12 @@
       <c r="A23" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="53">
+      <c r="B23" s="41"/>
+      <c r="C23" s="45">
         <f>C18-C20-C21</f>
         <v>9243926.4217600003</v>
       </c>
-      <c r="D23" s="53">
+      <c r="D23" s="45">
         <f>D18-D20-D21</f>
         <v>10304105.54995</v>
       </c>
@@ -1554,9 +1648,9 @@
     </row>
     <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
       <c r="E24" s="8"/>
       <c r="F24" s="17"/>
       <c r="K24" s="29"/>
@@ -1565,9 +1659,9 @@
     </row>
     <row r="25" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
       <c r="E25" s="8"/>
       <c r="F25" s="17"/>
       <c r="L25" s="1"/>
@@ -1577,11 +1671,11 @@
       <c r="A26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="53">
+      <c r="B26" s="41"/>
+      <c r="C26" s="45">
         <v>9093345</v>
       </c>
-      <c r="D26" s="53">
+      <c r="D26" s="45">
         <v>10414071</v>
       </c>
       <c r="E26" s="8"/>
@@ -1594,9 +1688,9 @@
     </row>
     <row r="27" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="12"/>
       <c r="F27" s="19"/>
       <c r="L27" s="1"/>
@@ -1606,12 +1700,12 @@
       <c r="A28" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="53">
+      <c r="B28" s="41"/>
+      <c r="C28" s="45">
         <f>C23-C26</f>
         <v>150581.42176000029</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="45">
         <f>D23-D26</f>
         <v>-109965.4500500001</v>
       </c>
@@ -1625,7 +1719,7 @@
     </row>
     <row r="29" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
-      <c r="B29" s="49"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="4"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1971,6 +2065,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A69493-E31E-48B0-B0D2-0E37CAC46895}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9FC461-157D-46FD-8382-33188C6E4A46}">
   <dimension ref="A1:D52"/>
   <sheetViews>
@@ -1987,11 +2096,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
       <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
